--- a/biology/Médecine/Thomas_Goulard/Thomas_Goulard.xlsx
+++ b/biology/Médecine/Thomas_Goulard/Thomas_Goulard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Goulard (né à Saint-Nicolas-de-la-Grave le 3 mars 1697 et mort à Montpellier le 16 janvier 1784[1]) était, vers le milieu du XVIIIe siècle, démonstrateur royal de chirurgie et d'anatomie à Montpellier et chirurgien major de l'hôpital militaire de cette ville. Il fut nommé maire d'Alet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Goulard (né à Saint-Nicolas-de-la-Grave le 3 mars 1697 et mort à Montpellier le 16 janvier 1784) était, vers le milieu du XVIIIe siècle, démonstrateur royal de chirurgie et d'anatomie à Montpellier et chirurgien major de l'hôpital militaire de cette ville. Il fut nommé maire d'Alet.
 Il était membre de la société royale de Montpellier des académies de Toulouse, de Lyon, etc. On lui doit l'eau de Goulard.
 Il était le père de Jean-François-Thomas Goulard.
 </t>
@@ -513,7 +525,9 @@
           <t>Ses œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mémoire sur quelques nouveaux instruments de chirurgie, dans le recueil de l'académie des sciences de l'année 1740
 Mémoire sur les maladies de l'urètre, 1746, in-8°
